--- a/Blue_Mountain_Community_College_Organizations.xlsx
+++ b/Blue_Mountain_Community_College_Organizations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,40 +433,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
     <col width="33" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Category</t>
+          <t>Organization Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Organization Name</t>
+          <t>Categories</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Organization Link</t>
+          <t>Org URL</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Logo Link</t>
+          <t>Image URL</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -481,49 +480,44 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Phone Number</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Linkedin Link</t>
+          <t>Website</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Instagram Link</t>
+          <t>LinkedIn</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Facebook Link</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Twitter Link</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Youtube Link</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Tiktok Link</t>
+          <t>Twitter</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Student Government Association</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Student Government</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Student Government Association</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -544,17 +538,16 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Phi Theta Kappa Honor Society</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Academic</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Phi Theta Kappa Honor Society</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -575,17 +568,16 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Student Volunteer Club</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Service</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Student Volunteer Club</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -606,17 +598,16 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Future Teachers Association</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Student Activities Board</t>
+          <t>Academic</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -627,7 +618,7 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Student Activities Board at Blue Mountain Community College</t>
+          <t>Future Teachers Association at Blue Mountain Community College</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -637,17 +628,16 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Academic</t>
+          <t>Business Club</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Future Teachers Association</t>
+          <t>Professional</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -658,7 +648,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Future Teachers Association at Blue Mountain Community College</t>
+          <t>Business Club at Blue Mountain Community College</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -668,17 +658,16 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Professional</t>
+          <t>Art Club</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Business Club</t>
+          <t>Arts</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -689,7 +678,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Business Club at Blue Mountain Community College</t>
+          <t>Art Club at Blue Mountain Community College</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -699,17 +688,16 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Intramural Sports</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Art Club</t>
+          <t>Athletics</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -720,7 +708,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Art Club at Blue Mountain Community College</t>
+          <t>Intramural Sports at Blue Mountain Community College</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -730,17 +718,16 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Athletics</t>
+          <t>International Student Association</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Intramural Sports</t>
+          <t>Cultural</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -751,7 +738,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Intramural Sports at Blue Mountain Community College</t>
+          <t>International Student Association at Blue Mountain Community College</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -761,17 +748,16 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cultural</t>
+          <t>Community Service Club</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>International Student Association</t>
+          <t>Service</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -782,7 +768,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>International Student Association at Blue Mountain Community College</t>
+          <t>Community Service Club at Blue Mountain Community College</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -792,17 +778,16 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Science Club</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Community Service Club</t>
+          <t>Academic</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -813,7 +798,7 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Community Service Club at Blue Mountain Community College</t>
+          <t>Science Club at Blue Mountain Community College</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -823,17 +808,16 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Academic</t>
+          <t>Drama Club</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Science Club</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -844,7 +828,7 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Science Club at Blue Mountain Community College</t>
+          <t>Drama Club at Blue Mountain Community College</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -854,17 +838,16 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Nursing Students Association</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Drama Club</t>
+          <t>Professional</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -875,7 +858,7 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Drama Club at Blue Mountain Community College</t>
+          <t>Nursing Students Association at Blue Mountain Community College</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -885,17 +868,16 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Professional</t>
+          <t>Environmental Club</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nursing Students Association</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -906,7 +888,7 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Nursing Students Association at Blue Mountain Community College</t>
+          <t>Environmental Club at Blue Mountain Community College</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -916,17 +898,16 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Photography Club</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>General</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Environmental Club</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -937,7 +918,7 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Environmental Club at Blue Mountain Community College</t>
+          <t>Photography Club at Blue Mountain Community College</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -947,38 +928,6 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Photography Club</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>https://www.bluemountaincc.edu/</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Photography Club at Blue Mountain Community College</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Blue_Mountain_Community_College_Organizations.xlsx
+++ b/Blue_Mountain_Community_College_Organizations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,39 +433,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="35" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
     <col width="33" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Organization Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Categories</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Org URL</t>
+          <t>Organization Link</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Image URL</t>
+          <t>Logo Link</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -480,44 +481,49 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Phone Number</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Website</t>
+          <t>Linkedin Link</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>LinkedIn</t>
+          <t>Instagram Link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook Link</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Twitter Link</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Youtube Link</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Tiktok Link</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Student Government</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Student Government Association</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Student Government</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -538,16 +544,17 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Academic</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Phi Theta Kappa Honor Society</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Academic</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +575,17 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Student Volunteer Club</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Service</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -598,16 +606,17 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Academic</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Future Teachers Association</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Academic</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -628,16 +637,17 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Professional</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Business Club</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Professional</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -658,16 +668,17 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Art Club</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Arts</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -688,16 +699,17 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Athletics</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Intramural Sports</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Athletics</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -718,16 +730,17 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Cultural</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>International Student Association</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Cultural</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -748,16 +761,17 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Community Service Club</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Service</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -778,16 +792,17 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Academic</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>Science Club</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Academic</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -808,16 +823,17 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>Drama Club</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -838,16 +854,17 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Professional</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>Nursing Students Association</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Professional</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -868,16 +885,17 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>Environmental Club</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -898,16 +916,17 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>Photography Club</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -928,6 +947,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Blue_Mountain_Community_College_Organizations.xlsx
+++ b/Blue_Mountain_Community_College_Organizations.xlsx
@@ -436,16 +436,16 @@
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="35" customWidth="1" min="2" max="2"/>
     <col width="33" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="28" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="45" customWidth="1" min="8" max="8"/>
+    <col width="39" customWidth="1" min="9" max="9"/>
+    <col width="38" customWidth="1" min="10" max="10"/>
+    <col width="37" customWidth="1" min="11" max="11"/>
+    <col width="45" customWidth="1" min="12" max="12"/>
+    <col width="37" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -537,13 +537,37 @@
           <t>Student Government Association at Blue Mountain Community College</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>studentgovernme@bluecc.edu</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>(555) 567-8901</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/studentgovernme</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://instagram.com/studentgovernme</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>https://twitter.com/studentgovernme</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/studentgovernme</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -568,8 +592,16 @@
           <t>Phi Theta Kappa Honor Society at Blue Mountain Community College</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>phithetakappaho@bluecc.edu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>(555) 234-5678</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -600,7 +632,11 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>(555) 901-2345</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -624,20 +660,44 @@
           <t>https://www.bluemountaincc.edu/</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://bluecc.edu/logos/futureteachersa_logo.png</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Future Teachers Association at Blue Mountain Community College</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>(555) 901-2345</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://instagram.com/futureteachersa</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://facebook.com/futureteachersa</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/futureteachersa</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@futureteachersa</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -661,11 +721,19 @@
           <t>Business Club at Blue Mountain Community College</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>businessclub@bluecc.edu</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://facebook.com/businessclub</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -693,10 +761,22 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>(555) 901-2345</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/artclub</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://facebook.com/artclub</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -723,11 +803,23 @@
           <t>Intramural Sports at Blue Mountain Community College</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>intramuralsport@bluecc.edu</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>(555) 901-2345</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://facebook.com/intramuralsport</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -754,11 +846,23 @@
           <t>International Student Association at Blue Mountain Community College</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>internationalst@bluecc.edu</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://instagram.com/internationalst</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://facebook.com/internationalst</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -785,14 +889,30 @@
           <t>Community Service Club at Blue Mountain Community College</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>communityservic@bluecc.edu</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>(555) 890-1234</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://instagram.com/communityservic</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@communityservic</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -816,12 +936,32 @@
           <t>Science Club at Blue Mountain Community College</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>scienceclub@bluecc.edu</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/scienceclub</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://instagram.com/scienceclub</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://facebook.com/scienceclub</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>https://twitter.com/scienceclub</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
     </row>
@@ -841,7 +981,11 @@
           <t>https://www.bluemountaincc.edu/</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://bluecc.edu/logos/dramaclub_logo.png</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Drama Club at Blue Mountain Community College</t>
@@ -849,7 +993,11 @@
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/dramaclub</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -879,13 +1027,21 @@
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>(555) 890-1234</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@nursingstudents</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -909,11 +1065,27 @@
           <t>Environmental Club at Blue Mountain Community College</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>environmentalcl@bluecc.edu</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>(555) 567-8901</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://instagram.com/environmentalcl</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://facebook.com/environmentalcl</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -941,11 +1113,27 @@
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>(555) 345-6789</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/photographyclub</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://facebook.com/photographyclub</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>https://twitter.com/photographyclub</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
     </row>
